--- a/Data/hormes.xlsx
+++ b/Data/hormes.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t xml:space="preserve">Sujet</t>
+  </si>
   <si>
     <t xml:space="preserve">A1</t>
   </si>
@@ -38,6 +41,9 @@
     <t xml:space="preserve">D2</t>
   </si>
   <si>
+    <t xml:space="preserve">Testosterone</t>
+  </si>
+  <si>
     <t xml:space="preserve">596</t>
   </si>
   <si>
@@ -53,6 +59,9 @@
     <t xml:space="preserve">493</t>
   </si>
   <si>
+    <t xml:space="preserve">Cortisol</t>
+  </si>
+  <si>
     <t xml:space="preserve">16.399999999999999</t>
   </si>
   <si>
@@ -66,6 +75,9 @@
   </si>
   <si>
     <t xml:space="preserve">18.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL-6</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;2,00</t>
@@ -425,83 +437,95 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
         <v>516</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>461</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>424</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="n">
         <v>27.4</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>19.6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>20.4</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="n">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="n">
         <v>3.51</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
